--- a/Lập trình PHP.xlsx
+++ b/Lập trình PHP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAFB112-572F-4F0A-9C4C-8E633EBC9DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2607D9-B71E-4658-81ED-497C79C67331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,15 +89,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
+      <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -120,8 +120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="466727"/>
-          <a:ext cx="3810000" cy="3819524"/>
+          <a:off x="47625" y="400052"/>
+          <a:ext cx="3714750" cy="3819524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -132,16 +132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428627</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -164,8 +164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829177" y="361951"/>
-          <a:ext cx="5991224" cy="4381500"/>
+          <a:off x="5029201" y="400051"/>
+          <a:ext cx="6048373" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -357,16 +357,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -389,7 +389,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="219075"/>
+          <a:off x="657225" y="238125"/>
           <a:ext cx="6029325" cy="3609975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A1B791-306D-4ABF-8912-CF781E529658}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lập trình PHP.xlsx
+++ b/Lập trình PHP.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2607D9-B71E-4658-81ED-497C79C67331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180B903-BFC1-495D-99F3-ED3ECD935769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -62,13 +70,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,7 +679,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +691,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -690,8 +701,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{2DD8DB5F-4E6C-4887-845F-4865BE801349}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
